--- a/WebContent/발표/3조 5차 요구사항정의서_전현규.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서_전현규.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\jhk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="341">
   <si>
     <t>구분</t>
   </si>
@@ -1251,6 +1251,70 @@
   </si>
   <si>
     <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월23일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2361,10 +2425,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2373,19 +2443,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2397,10 +2461,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2415,53 +2527,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,15 +2558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2528,7 +2601,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1540"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1559"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2587,7 +2660,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1541"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1560"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2646,7 +2719,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1542"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1561"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2705,7 +2778,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1543"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1562"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2764,7 +2837,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1544"/>
+                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1563"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2823,7 +2896,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$17" spid="_x0000_s1545"/>
+                  <a14:cameraTool cellRange="$O$17" spid="_x0000_s1564"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2882,7 +2955,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1546"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1565"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2941,7 +3014,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1547"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1566"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3000,7 +3073,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$22" spid="_x0000_s1548"/>
+                  <a14:cameraTool cellRange="$O$22" spid="_x0000_s1567"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3059,7 +3132,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$26" spid="_x0000_s1549"/>
+                  <a14:cameraTool cellRange="$N$26" spid="_x0000_s1568"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3118,7 +3191,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$31" spid="_x0000_s1550"/>
+                  <a14:cameraTool cellRange="$N$31" spid="_x0000_s1569"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3177,7 +3250,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1551"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1570"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3236,7 +3309,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1552"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1571"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3295,7 +3368,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$31" spid="_x0000_s1553"/>
+                  <a14:cameraTool cellRange="$O$31" spid="_x0000_s1572"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3354,7 +3427,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$33" spid="_x0000_s1554"/>
+                  <a14:cameraTool cellRange="$O$33" spid="_x0000_s1573"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3413,7 +3486,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1555"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1574"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3472,7 +3545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$36" spid="_x0000_s1556"/>
+                  <a14:cameraTool cellRange="$O$36" spid="_x0000_s1575"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3531,7 +3604,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$38" spid="_x0000_s1557"/>
+                  <a14:cameraTool cellRange="$O$38" spid="_x0000_s1576"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3590,7 +3663,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1558"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1577"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3979,7 +4052,7 @@
       <c r="B3" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3997,7 +4070,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="145"/>
-      <c r="C4" s="136"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4013,7 +4086,7 @@
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="145"/>
-      <c r="C5" s="139"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4102,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="145"/>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="141" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4047,7 +4120,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="145"/>
-      <c r="C7" s="136"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4063,7 +4136,7 @@
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="146"/>
-      <c r="C8" s="139"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4080,10 +4153,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4100,8 +4173,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="137"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4116,11 +4189,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="137"/>
-      <c r="C11" s="135" t="s">
+      <c r="B11" s="139"/>
+      <c r="C11" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="147" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4134,9 +4207,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="137"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="142"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4148,8 +4221,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="137"/>
-      <c r="C13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4164,8 +4237,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="137"/>
-      <c r="C14" s="136"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4180,8 +4253,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="137"/>
-      <c r="C15" s="139"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4198,8 +4271,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="137"/>
-      <c r="C16" s="135" t="s">
+      <c r="B16" s="139"/>
+      <c r="C16" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4216,8 +4289,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="137"/>
-      <c r="C17" s="136"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4232,8 +4305,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="137"/>
-      <c r="C18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4248,8 +4321,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4264,10 +4337,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="141" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4284,8 +4357,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="137"/>
-      <c r="C21" s="136"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4300,8 +4373,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="137"/>
-      <c r="C22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4316,7 +4389,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="137"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4334,10 +4407,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="141" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4354,8 +4427,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="137"/>
-      <c r="C25" s="136"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4443,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="137"/>
-      <c r="C26" s="139"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4459,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="137"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4404,7 +4477,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="138"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4442,10 +4515,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="147" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4462,8 +4535,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="136"/>
-      <c r="C31" s="141"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4478,8 +4551,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="137"/>
-      <c r="C32" s="135" t="s">
+      <c r="B32" s="139"/>
+      <c r="C32" s="141" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4496,8 +4569,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="137"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4512,8 +4585,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="137"/>
-      <c r="C34" s="135" t="s">
+      <c r="B34" s="139"/>
+      <c r="C34" s="141" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4530,8 +4603,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="137"/>
-      <c r="C35" s="136"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4544,8 +4617,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="137"/>
-      <c r="C36" s="136"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4560,8 +4633,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="137"/>
-      <c r="C37" s="136"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="142"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4576,8 +4649,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="137"/>
-      <c r="C38" s="139"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="143"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4592,8 +4665,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="137"/>
-      <c r="C39" s="135" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4610,8 +4683,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="137"/>
-      <c r="C40" s="136"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4626,8 +4699,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="137"/>
-      <c r="C41" s="136"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4642,8 +4715,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="137"/>
-      <c r="C42" s="136"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4658,8 +4731,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="137"/>
-      <c r="C43" s="139"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="143"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4674,8 +4747,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="137"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="139"/>
+      <c r="C44" s="141" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4692,8 +4765,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="137"/>
-      <c r="C45" s="139"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="143"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4708,8 +4781,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="137"/>
-      <c r="C46" s="135" t="s">
+      <c r="B46" s="139"/>
+      <c r="C46" s="141" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4726,8 +4799,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="137"/>
-      <c r="C47" s="139"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4742,8 +4815,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="137"/>
-      <c r="C48" s="135" t="s">
+      <c r="B48" s="139"/>
+      <c r="C48" s="141" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4760,8 +4833,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="143"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4777,18 +4850,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4797,6 +4858,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4826,15 +4899,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4866,21 +4939,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="162" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4896,8 +4969,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="153"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4911,8 +4984,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4926,8 +4999,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="156" t="s">
+      <c r="A7" s="160"/>
+      <c r="B7" s="150" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -4943,8 +5016,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -4958,8 +5031,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -4973,10 +5046,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="163" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -4992,8 +5065,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="148"/>
-      <c r="B11" s="165"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5007,8 +5080,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5022,8 +5095,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="163"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5039,8 +5112,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
-      <c r="B14" s="166" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="151" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5056,8 +5129,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
-      <c r="B15" s="165"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5071,8 +5144,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
-      <c r="B16" s="166" t="s">
+      <c r="A16" s="158"/>
+      <c r="B16" s="151" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5088,8 +5161,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5103,8 +5176,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5120,8 +5193,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="163"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5135,8 +5208,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="166" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="151" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5152,8 +5225,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="163"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5167,8 +5240,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="166" t="s">
+      <c r="A22" s="158"/>
+      <c r="B22" s="151" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5184,8 +5257,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="165"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5199,8 +5272,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5214,8 +5287,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="163"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5229,8 +5302,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="148"/>
-      <c r="B26" s="166" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="151" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5246,8 +5319,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
-      <c r="B27" s="165"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5261,8 +5334,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="165"/>
+      <c r="A28" s="158"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5276,8 +5349,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="148"/>
-      <c r="B29" s="165"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5291,10 +5364,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="162" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5310,8 +5383,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
-      <c r="B31" s="156"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5325,8 +5398,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5340,8 +5413,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="148"/>
-      <c r="B33" s="156"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5355,8 +5428,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="148"/>
-      <c r="B34" s="156" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="150" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5372,8 +5445,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
-      <c r="B35" s="156"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21762,8 +21835,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
-      <c r="B36" s="156"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21775,8 +21848,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="148"/>
-      <c r="B37" s="156" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="150" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21792,8 +21865,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
-      <c r="B38" s="156"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21807,7 +21880,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
+      <c r="A39" s="158"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21824,10 +21897,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="153" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21843,8 +21916,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
-      <c r="B41" s="156"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21858,8 +21931,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="153"/>
-      <c r="B42" s="156" t="s">
+      <c r="A42" s="160"/>
+      <c r="B42" s="150" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21875,8 +21948,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="153"/>
-      <c r="B43" s="156"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21890,11 +21963,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
-      <c r="B44" s="156" t="s">
+      <c r="A44" s="160"/>
+      <c r="B44" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="166" t="s">
+      <c r="C44" s="151" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21907,9 +21980,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="163"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21920,8 +21993,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
-      <c r="B46" s="156"/>
+      <c r="A46" s="160"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21935,8 +22008,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
-      <c r="B47" s="156"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="150"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -21950,8 +22023,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
-      <c r="B48" s="156"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="150"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -21965,8 +22038,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="156" t="s">
+      <c r="A49" s="160"/>
+      <c r="B49" s="150" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -21982,8 +22055,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
-      <c r="B50" s="156"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="150"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -21997,8 +22070,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="153"/>
-      <c r="B51" s="156"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22012,8 +22085,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="153"/>
-      <c r="B52" s="156"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="150"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22027,8 +22100,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="153"/>
-      <c r="B53" s="166" t="s">
+      <c r="A53" s="160"/>
+      <c r="B53" s="151" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22044,8 +22117,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="153"/>
-      <c r="B54" s="165"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22059,8 +22132,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="153"/>
-      <c r="B55" s="156" t="s">
+      <c r="A55" s="160"/>
+      <c r="B55" s="150" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22076,8 +22149,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="153"/>
-      <c r="B56" s="156"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22091,8 +22164,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="153"/>
-      <c r="B57" s="166" t="s">
+      <c r="A57" s="160"/>
+      <c r="B57" s="151" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22108,8 +22181,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="162"/>
-      <c r="B58" s="163"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22123,8 +22196,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="162"/>
-      <c r="B59" s="166" t="s">
+      <c r="A59" s="161"/>
+      <c r="B59" s="151" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22140,8 +22213,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="162"/>
-      <c r="B60" s="167"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22404,11 +22477,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22425,11 +22498,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22474,15 +22547,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22514,15 +22587,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
@@ -22542,10 +22615,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="171" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22567,8 +22640,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
@@ -22588,8 +22661,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
@@ -22609,8 +22682,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168" t="s">
+      <c r="N7" s="171"/>
+      <c r="O7" s="171" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22632,8 +22705,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
@@ -22653,8 +22726,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
@@ -22676,10 +22749,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="168" t="s">
+      <c r="N10" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="168" t="s">
+      <c r="O10" s="171" t="s">
         <v>103</v>
       </c>
     </row>
@@ -22703,8 +22776,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
@@ -22726,8 +22799,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
@@ -22747,8 +22820,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
@@ -22770,8 +22843,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168" t="s">
+      <c r="N14" s="171"/>
+      <c r="O14" s="171" t="s">
         <v>111</v>
       </c>
     </row>
@@ -22795,8 +22868,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
@@ -22818,8 +22891,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="168"/>
-      <c r="O16" s="168"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
@@ -22841,8 +22914,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="168" t="s">
+      <c r="N17" s="171"/>
+      <c r="O17" s="171" t="s">
         <v>180</v>
       </c>
     </row>
@@ -22866,8 +22939,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="168"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
@@ -22887,8 +22960,8 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="168" t="s">
+      <c r="N19" s="171"/>
+      <c r="O19" s="171" t="s">
         <v>303</v>
       </c>
     </row>
@@ -22910,8 +22983,8 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
@@ -22931,7 +23004,7 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="168"/>
+      <c r="N21" s="171"/>
       <c r="O21" s="133"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -22952,8 +23025,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168" t="s">
+      <c r="N22" s="171"/>
+      <c r="O22" s="171" t="s">
         <v>43</v>
       </c>
     </row>
@@ -22975,8 +23048,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
@@ -22996,8 +23069,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="168"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
     </row>
     <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="84" t="s">
@@ -23017,8 +23090,8 @@
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="45"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="168"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
@@ -23038,10 +23111,10 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
-      <c r="N26" s="168" t="s">
+      <c r="N26" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="168" t="s">
+      <c r="O26" s="171" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23063,8 +23136,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
@@ -23084,8 +23157,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="168"/>
-      <c r="O28" s="168"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
@@ -23105,8 +23178,8 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
     </row>
     <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="88" t="s">
@@ -23128,7 +23201,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
-      <c r="N30" s="168"/>
+      <c r="N30" s="171"/>
       <c r="O30" s="78" t="s">
         <v>139</v>
       </c>
@@ -23151,10 +23224,10 @@
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
-      <c r="N31" s="168" t="s">
+      <c r="N31" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="168" t="s">
+      <c r="O31" s="171" t="s">
         <v>71</v>
       </c>
     </row>
@@ -23176,8 +23249,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="76" t="s">
@@ -23197,8 +23270,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168" t="s">
+      <c r="N33" s="171"/>
+      <c r="O33" s="171" t="s">
         <v>257</v>
       </c>
     </row>
@@ -23220,8 +23293,8 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
-      <c r="N34" s="168"/>
-      <c r="O34" s="168"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="171"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="76" t="s">
@@ -23243,8 +23316,8 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
-      <c r="N35" s="168"/>
-      <c r="O35" s="168"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
@@ -23266,8 +23339,8 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="168" t="s">
+      <c r="N36" s="171"/>
+      <c r="O36" s="171" t="s">
         <v>154</v>
       </c>
     </row>
@@ -23291,8 +23364,8 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="168"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="90" t="s">
@@ -23314,8 +23387,8 @@
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
-      <c r="N38" s="168"/>
-      <c r="O38" s="168" t="s">
+      <c r="N38" s="171"/>
+      <c r="O38" s="171" t="s">
         <v>275</v>
       </c>
     </row>
@@ -23339,8 +23412,8 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
     </row>
     <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
@@ -23592,6 +23665,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="N10:N25"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="N26:N30"/>
     <mergeCell ref="O26:O29"/>
     <mergeCell ref="N31:N39"/>
@@ -23599,17 +23683,6 @@
     <mergeCell ref="O33:O35"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="O38:O39"/>
-    <mergeCell ref="N10:N25"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23624,7 +23697,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23661,52 +23734,52 @@
       <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="169" t="s">
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="175" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="M2" s="171" t="s">
+      <c r="M2" s="177" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="179"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="175"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
       <c r="H3" s="134" t="s">
         <v>306</v>
       </c>
@@ -23716,8 +23789,8 @@
       <c r="J3" s="134" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
       <c r="M3" s="134" t="s">
         <v>309</v>
       </c>
@@ -23745,11 +23818,11 @@
       <c r="N4" s="126"/>
       <c r="O4" s="97"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="163" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="99" t="s">
@@ -23758,65 +23831,77 @@
       <c r="D5" s="96">
         <v>1</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="163" t="s">
         <v>290</v>
       </c>
       <c r="F5" s="96"/>
-      <c r="G5" s="124"/>
+      <c r="G5" s="124" t="s">
+        <v>325</v>
+      </c>
       <c r="H5" s="124"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="127"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="135"/>
       <c r="K5" s="121"/>
-      <c r="L5" s="127"/>
+      <c r="L5" s="135" t="s">
+        <v>326</v>
+      </c>
       <c r="M5" s="121"/>
       <c r="N5" s="121"/>
       <c r="O5" s="121"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="148"/>
-      <c r="B6" s="165"/>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="158"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="92">
         <v>1</v>
       </c>
-      <c r="E6" s="165"/>
+      <c r="E6" s="152"/>
       <c r="F6" s="92"/>
-      <c r="G6" s="118"/>
+      <c r="G6" s="124" t="s">
+        <v>327</v>
+      </c>
       <c r="H6" s="124"/>
       <c r="I6" s="124"/>
-      <c r="J6" s="128"/>
+      <c r="J6" s="136"/>
       <c r="K6" s="118"/>
-      <c r="L6" s="128"/>
+      <c r="L6" s="135" t="s">
+        <v>328</v>
+      </c>
       <c r="M6" s="124"/>
       <c r="N6" s="124"/>
       <c r="O6" s="118"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
-      <c r="B7" s="163"/>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="158"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="100" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="92">
         <v>1</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="152"/>
       <c r="F7" s="92"/>
-      <c r="G7" s="118"/>
+      <c r="G7" s="124" t="s">
+        <v>327</v>
+      </c>
       <c r="H7" s="124"/>
       <c r="I7" s="124"/>
       <c r="J7" s="124"/>
       <c r="K7" s="118"/>
-      <c r="L7" s="124"/>
+      <c r="L7" s="135" t="s">
+        <v>326</v>
+      </c>
       <c r="M7" s="124"/>
       <c r="N7" s="124"/>
       <c r="O7" s="118"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="148"/>
-      <c r="B8" s="166" t="s">
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="158"/>
+      <c r="B8" s="151" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="100" t="s">
@@ -23825,65 +23910,77 @@
       <c r="D8" s="92">
         <v>1</v>
       </c>
-      <c r="E8" s="165"/>
+      <c r="E8" s="152"/>
       <c r="F8" s="92"/>
-      <c r="G8" s="118"/>
+      <c r="G8" s="118" t="s">
+        <v>329</v>
+      </c>
       <c r="H8" s="118"/>
       <c r="I8" s="118"/>
       <c r="J8" s="118"/>
       <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="L8" s="135" t="s">
+        <v>328</v>
+      </c>
       <c r="M8" s="118"/>
       <c r="N8" s="118"/>
       <c r="O8" s="118"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
-      <c r="B9" s="165"/>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="158"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="100" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="92">
         <v>1</v>
       </c>
-      <c r="E9" s="165"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="92"/>
-      <c r="G9" s="118"/>
+      <c r="G9" s="118" t="s">
+        <v>330</v>
+      </c>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
       <c r="J9" s="118"/>
       <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="L9" s="135" t="s">
+        <v>331</v>
+      </c>
       <c r="M9" s="118"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="176"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="101" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="98">
         <v>1</v>
       </c>
-      <c r="E10" s="167"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="98"/>
-      <c r="G10" s="118"/>
+      <c r="G10" s="118" t="s">
+        <v>330</v>
+      </c>
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
       <c r="J10" s="118"/>
       <c r="K10" s="122"/>
-      <c r="L10" s="118"/>
+      <c r="L10" s="135" t="s">
+        <v>326</v>
+      </c>
       <c r="M10" s="123"/>
       <c r="N10" s="123"/>
       <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="163" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="107" t="s">
@@ -23892,7 +23989,7 @@
       <c r="D11" s="96">
         <v>2</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="163" t="s">
         <v>294</v>
       </c>
       <c r="F11" s="96"/>
@@ -23907,15 +24004,15 @@
       <c r="O11" s="121"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="108" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="92">
         <v>1</v>
       </c>
-      <c r="E12" s="165"/>
+      <c r="E12" s="152"/>
       <c r="F12" s="92"/>
       <c r="G12" s="118"/>
       <c r="H12" s="118"/>
@@ -23928,15 +24025,15 @@
       <c r="O12" s="118"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="108" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="92">
         <v>1</v>
       </c>
-      <c r="E13" s="165"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="92"/>
       <c r="G13" s="118"/>
       <c r="H13" s="118"/>
@@ -23949,15 +24046,15 @@
       <c r="O13" s="118"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="108" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="92">
         <v>2</v>
       </c>
-      <c r="E14" s="163"/>
+      <c r="E14" s="153"/>
       <c r="F14" s="92"/>
       <c r="G14" s="118"/>
       <c r="H14" s="118"/>
@@ -23970,8 +24067,8 @@
       <c r="O14" s="118"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
-      <c r="B15" s="166" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="151" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="109" t="s">
@@ -23980,7 +24077,7 @@
       <c r="D15" s="92">
         <v>2</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="151" t="s">
         <v>294</v>
       </c>
       <c r="F15" s="92"/>
@@ -23995,15 +24092,15 @@
       <c r="O15" s="118"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
-      <c r="B16" s="165"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="108" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="92">
         <v>1</v>
       </c>
-      <c r="E16" s="165"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="92"/>
       <c r="G16" s="118"/>
       <c r="H16" s="118"/>
@@ -24016,15 +24113,15 @@
       <c r="O16" s="118"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="108" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="92">
         <v>1</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="92"/>
       <c r="G17" s="118"/>
       <c r="H17" s="118"/>
@@ -24037,8 +24134,8 @@
       <c r="O17" s="118"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="166" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="151" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="105" t="s">
@@ -24047,7 +24144,7 @@
       <c r="D18" s="92">
         <v>1</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="151" t="s">
         <v>300</v>
       </c>
       <c r="F18" s="92"/>
@@ -24062,15 +24159,15 @@
       <c r="O18" s="118"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="163"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="105" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="92">
         <v>2</v>
       </c>
-      <c r="E19" s="165"/>
+      <c r="E19" s="152"/>
       <c r="F19" s="92"/>
       <c r="G19" s="118"/>
       <c r="H19" s="118"/>
@@ -24083,8 +24180,8 @@
       <c r="O19" s="118"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="166" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="151" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="110" t="s">
@@ -24093,7 +24190,7 @@
       <c r="D20" s="92">
         <v>1</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="152" t="s">
         <v>316</v>
       </c>
       <c r="F20" s="92"/>
@@ -24108,15 +24205,15 @@
       <c r="O20" s="118"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="165"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="110" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="92">
         <v>2</v>
       </c>
-      <c r="E21" s="165"/>
+      <c r="E21" s="152"/>
       <c r="F21" s="92"/>
       <c r="G21" s="118"/>
       <c r="H21" s="118"/>
@@ -24129,7 +24226,7 @@
       <c r="O21" s="118"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="86" t="s">
         <v>311</v>
       </c>
@@ -24139,7 +24236,7 @@
       <c r="D22" s="92">
         <v>1</v>
       </c>
-      <c r="E22" s="163"/>
+      <c r="E22" s="153"/>
       <c r="F22" s="92"/>
       <c r="G22" s="118"/>
       <c r="H22" s="118"/>
@@ -24152,8 +24249,8 @@
       <c r="O22" s="118"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="166" t="s">
+      <c r="A23" s="158"/>
+      <c r="B23" s="151" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="105" t="s">
@@ -24162,65 +24259,77 @@
       <c r="D23" s="92">
         <v>3</v>
       </c>
-      <c r="E23" s="166" t="s">
+      <c r="E23" s="151" t="s">
         <v>291</v>
       </c>
       <c r="F23" s="92"/>
-      <c r="G23" s="118"/>
+      <c r="G23" s="118" t="s">
+        <v>332</v>
+      </c>
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
       <c r="J23" s="118"/>
       <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
+      <c r="L23" s="118" t="s">
+        <v>333</v>
+      </c>
       <c r="M23" s="118"/>
       <c r="N23" s="118"/>
       <c r="O23" s="118"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="105" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="92">
         <v>3</v>
       </c>
-      <c r="E24" s="165"/>
+      <c r="E24" s="152"/>
       <c r="F24" s="92"/>
-      <c r="G24" s="118"/>
+      <c r="G24" s="118" t="s">
+        <v>332</v>
+      </c>
       <c r="H24" s="118"/>
       <c r="I24" s="118"/>
       <c r="J24" s="118"/>
       <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
+      <c r="L24" s="118" t="s">
+        <v>334</v>
+      </c>
       <c r="M24" s="118"/>
       <c r="N24" s="118"/>
       <c r="O24" s="118"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="165"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="105" t="s">
         <v>286</v>
       </c>
       <c r="D25" s="92">
         <v>3</v>
       </c>
-      <c r="E25" s="165"/>
+      <c r="E25" s="152"/>
       <c r="F25" s="92"/>
-      <c r="G25" s="118"/>
+      <c r="G25" s="118" t="s">
+        <v>332</v>
+      </c>
       <c r="H25" s="118"/>
       <c r="I25" s="118"/>
       <c r="J25" s="118"/>
       <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
+      <c r="L25" s="118" t="s">
+        <v>333</v>
+      </c>
       <c r="M25" s="118"/>
       <c r="N25" s="118"/>
       <c r="O25" s="118"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="176"/>
-      <c r="B26" s="167"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="106" t="s">
         <v>279</v>
       </c>
@@ -24241,11 +24350,11 @@
       <c r="N26" s="123"/>
       <c r="O26" s="123"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="163" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="102" t="s">
@@ -24254,51 +24363,59 @@
       <c r="D27" s="96">
         <v>1</v>
       </c>
-      <c r="E27" s="164" t="s">
+      <c r="E27" s="163" t="s">
         <v>292</v>
       </c>
       <c r="F27" s="96"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="121" t="s">
+        <v>336</v>
+      </c>
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
       <c r="J27" s="121"/>
       <c r="K27" s="121"/>
-      <c r="L27" s="127"/>
+      <c r="L27" s="118" t="s">
+        <v>333</v>
+      </c>
       <c r="M27" s="121"/>
       <c r="N27" s="121"/>
       <c r="O27" s="121"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="165"/>
+      <c r="A28" s="158"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="103" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="92">
         <v>1</v>
       </c>
-      <c r="E28" s="163"/>
+      <c r="E28" s="153"/>
       <c r="F28" s="92"/>
-      <c r="G28" s="124"/>
+      <c r="G28" s="121" t="s">
+        <v>335</v>
+      </c>
       <c r="H28" s="124"/>
       <c r="I28" s="124"/>
       <c r="J28" s="124"/>
       <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
+      <c r="L28" s="118" t="s">
+        <v>333</v>
+      </c>
       <c r="M28" s="124"/>
       <c r="N28" s="124"/>
       <c r="O28" s="118"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
-      <c r="B29" s="165"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="111" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="92">
         <v>3</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="151" t="s">
         <v>295</v>
       </c>
       <c r="F29" s="92"/>
@@ -24313,15 +24430,15 @@
       <c r="O29" s="118"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="163"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="111" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="92">
         <v>3</v>
       </c>
-      <c r="E30" s="163"/>
+      <c r="E30" s="153"/>
       <c r="F30" s="92"/>
       <c r="G30" s="118"/>
       <c r="H30" s="118"/>
@@ -24334,7 +24451,7 @@
       <c r="O30" s="118"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="176"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="98" t="s">
         <v>139</v>
       </c>
@@ -24358,11 +24475,11 @@
       <c r="N31" s="122"/>
       <c r="O31" s="122"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="147" t="s">
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="163" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="104" t="s">
@@ -24371,44 +24488,52 @@
       <c r="D32" s="94">
         <v>3</v>
       </c>
-      <c r="E32" s="164" t="s">
+      <c r="E32" s="163" t="s">
         <v>293</v>
       </c>
       <c r="F32" s="94"/>
-      <c r="G32" s="127"/>
+      <c r="G32" s="135" t="s">
+        <v>337</v>
+      </c>
       <c r="H32" s="124"/>
       <c r="I32" s="124"/>
       <c r="J32" s="124"/>
       <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
+      <c r="L32" s="124" t="s">
+        <v>338</v>
+      </c>
       <c r="M32" s="124"/>
       <c r="N32" s="124"/>
       <c r="O32" s="124"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="148"/>
-      <c r="B33" s="163"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="100" t="s">
         <v>301</v>
       </c>
       <c r="D33" s="92">
         <v>3</v>
       </c>
-      <c r="E33" s="163"/>
+      <c r="E33" s="153"/>
       <c r="F33" s="92"/>
-      <c r="G33" s="124"/>
+      <c r="G33" s="135" t="s">
+        <v>337</v>
+      </c>
       <c r="H33" s="124"/>
       <c r="I33" s="124"/>
       <c r="J33" s="118"/>
       <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
+      <c r="L33" s="124" t="s">
+        <v>338</v>
+      </c>
       <c r="M33" s="118"/>
       <c r="N33" s="118"/>
       <c r="O33" s="118"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="148"/>
-      <c r="B34" s="166" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="151" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="108" t="s">
@@ -24417,7 +24542,7 @@
       <c r="D34" s="92">
         <v>1</v>
       </c>
-      <c r="E34" s="166" t="s">
+      <c r="E34" s="151" t="s">
         <v>294</v>
       </c>
       <c r="F34" s="92"/>
@@ -24432,15 +24557,15 @@
       <c r="O34" s="118"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="148"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="108" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="92">
         <v>1</v>
       </c>
-      <c r="E35" s="165"/>
+      <c r="E35" s="152"/>
       <c r="F35" s="92"/>
       <c r="G35" s="118"/>
       <c r="H35" s="118"/>
@@ -24453,15 +24578,15 @@
       <c r="O35" s="118"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="148"/>
-      <c r="B36" s="163"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="108" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="92">
         <v>1</v>
       </c>
-      <c r="E36" s="163"/>
+      <c r="E36" s="153"/>
       <c r="F36" s="92"/>
       <c r="G36" s="118"/>
       <c r="H36" s="118"/>
@@ -24474,8 +24599,8 @@
       <c r="O36" s="118"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="148"/>
-      <c r="B37" s="166" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="151" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="110" t="s">
@@ -24484,7 +24609,7 @@
       <c r="D37" s="92">
         <v>2</v>
       </c>
-      <c r="E37" s="166" t="s">
+      <c r="E37" s="151" t="s">
         <v>298</v>
       </c>
       <c r="F37" s="92"/>
@@ -24499,15 +24624,15 @@
       <c r="O37" s="118"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="148"/>
-      <c r="B38" s="163"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="110" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="92">
         <v>3</v>
       </c>
-      <c r="E38" s="163"/>
+      <c r="E38" s="153"/>
       <c r="F38" s="92"/>
       <c r="G38" s="118"/>
       <c r="H38" s="118"/>
@@ -24520,8 +24645,8 @@
       <c r="O38" s="118"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="148"/>
-      <c r="B39" s="166" t="s">
+      <c r="A39" s="158"/>
+      <c r="B39" s="151" t="s">
         <v>275</v>
       </c>
       <c r="C39" s="106" t="s">
@@ -24530,7 +24655,7 @@
       <c r="D39" s="93">
         <v>2</v>
       </c>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="151" t="s">
         <v>299</v>
       </c>
       <c r="F39" s="93"/>
@@ -24545,15 +24670,15 @@
       <c r="O39" s="123"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="176"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="106" t="s">
         <v>278</v>
       </c>
       <c r="D40" s="93">
         <v>3</v>
       </c>
-      <c r="E40" s="167"/>
+      <c r="E40" s="164"/>
       <c r="F40" s="93"/>
       <c r="G40" s="123"/>
       <c r="H40" s="123"/>
@@ -24582,12 +24707,16 @@
         <v>289</v>
       </c>
       <c r="F41" s="52"/>
-      <c r="G41" s="125"/>
+      <c r="G41" s="125" t="s">
+        <v>339</v>
+      </c>
       <c r="H41" s="125"/>
       <c r="I41" s="125"/>
       <c r="J41" s="125"/>
       <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
+      <c r="L41" s="125" t="s">
+        <v>340</v>
+      </c>
       <c r="M41" s="125"/>
       <c r="N41" s="125"/>
       <c r="O41" s="125"/>
@@ -24937,19 +25066,16 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
@@ -24966,16 +25092,19 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25002,12 +25131,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -25030,15 +25159,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="80" t="s">
@@ -25054,7 +25183,7 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="176"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="81" t="s">
         <v>265</v>
       </c>
@@ -25068,7 +25197,7 @@
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="157" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="83" t="s">
@@ -25084,7 +25213,7 @@
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="87" t="s">
         <v>111</v>
       </c>
@@ -25098,7 +25227,7 @@
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="148"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="85" t="s">
         <v>269</v>
       </c>
@@ -25112,7 +25241,7 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="80" t="s">
         <v>115</v>
       </c>
@@ -25126,7 +25255,7 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="148"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="85" t="s">
         <v>304</v>
       </c>
@@ -25140,7 +25269,7 @@
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="176"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="87" t="s">
         <v>43</v>
       </c>
@@ -25154,7 +25283,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="157" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="79" t="s">
@@ -25170,7 +25299,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="176"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -25184,7 +25313,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="157" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="86" t="s">
@@ -25200,7 +25329,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="86" t="s">
         <v>273</v>
       </c>
@@ -25214,7 +25343,7 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="80" t="s">
         <v>274</v>
       </c>
@@ -25228,7 +25357,7 @@
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="176"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="91" t="s">
         <v>275</v>
       </c>
